--- a/students.xlsx
+++ b/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8CA5D-61E7-4AD6-8805-39A32AAAB798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD79E33-2DC3-47D7-A0E6-6CFE4E454AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -28,31 +28,13 @@
     <t>NationalID</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Mahmoud Ali</t>
-  </si>
-  <si>
-    <t>30101180123456</t>
-  </si>
-  <si>
-    <t>excelent</t>
-  </si>
-  <si>
     <t>Aya Hassan</t>
   </si>
   <si>
-    <t>very good</t>
+    <t>Mahmoud Ali mohammed</t>
   </si>
   <si>
-    <t>Omar Youssef</t>
-  </si>
-  <si>
-    <t>30101180123458</t>
-  </si>
-  <si>
-    <t>Good</t>
+    <t>Omar Youssef Hany</t>
   </si>
 </sst>
 </file>
@@ -415,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="197" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -425,51 +407,38 @@
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>30101180123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26938456283475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>30101180123457</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>30101180123458</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD79E33-2DC3-47D7-A0E6-6CFE4E454AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DFBAF3-F6A2-4DCE-B3B6-879ED599D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="197" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
